--- a/digitale-teller.xlsx
+++ b/digitale-teller.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sander Vuurstaek\Dropbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23641A4D-FB4A-451B-9539-092096D280EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F556223-E530-48AF-A4E9-2B608A560D7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11760" xr2:uid="{057D9BC0-98AB-4B09-B078-34CB66DB4C3B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Geïnstalleerd vermogen (kWp)</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Jaar indienstname zonnepanelen</t>
+  </si>
+  <si>
+    <t>Verbruik per jaar (kWh)</t>
   </si>
 </sst>
 </file>
@@ -264,6 +267,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -275,10 +282,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -415,22 +418,22 @@
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>16207.5</c:v>
+                  <c:v>6483</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16360.75</c:v>
+                  <c:v>6515.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16054</c:v>
+                  <c:v>6363.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16087.25</c:v>
+                  <c:v>6348.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16110.5</c:v>
+                  <c:v>6328.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16123.75</c:v>
+                  <c:v>6305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -479,22 +482,22 @@
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>14470</c:v>
+                  <c:v>5499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14470</c:v>
+                  <c:v>5499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14470</c:v>
+                  <c:v>5499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14470</c:v>
+                  <c:v>5499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14470</c:v>
+                  <c:v>5499</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14470</c:v>
+                  <c:v>5499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1709,7 +1712,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1726,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>10.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -1734,68 +1737,76 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>72.25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>72.25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>2020</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="13">
-        <v>0.22500000000000001</v>
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>2020</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="13">
-        <v>0.1</v>
+        <v>0.22500000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="13">
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>10</v>
       </c>
     </row>
@@ -1804,8 +1815,8 @@
         <v>12</v>
       </c>
       <c r="E11" s="4">
-        <f>(B6*B2)-(B3*B4)</f>
-        <v>1447</v>
+        <f>(B7*B2)-(B4*B5)-MAX(B2-B3,0)*B7</f>
+        <v>549.9</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -1813,19 +1824,19 @@
         <v>11</v>
       </c>
       <c r="E12" s="4">
-        <f>(B6*B2*B8/100)+(B7*B2*(1-B8/100))</f>
-        <v>1293.75</v>
+        <f>(B7*B2*B9/100)+(B8*B2*(1-B9/100))-MAX(B2-B3,0)*B8</f>
+        <v>517.5</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D15" s="3"/>
@@ -1850,63 +1861,63 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D16" s="3" t="str">
-        <f>"Totale geschatte opbrengst van 1 januari 2021 tot 1 januari "&amp;2021+B9</f>
+        <f>"Totale geschatte opbrengst van 1 januari 2021 tot 1 januari "&amp;2021+B10</f>
         <v>Totale geschatte opbrengst van 1 januari 2021 tot 1 januari 2031</v>
       </c>
-      <c r="E16" s="19">
-        <f>0*$E$11+($B$9-0)*$E$12+INDEX('Retroactieve investeringspremie'!C5:H19,MATCH($B$5,'Retroactieve investeringspremie'!B5:B19,0),1)*MIN($B$1,10)</f>
-        <v>16207.5</v>
-      </c>
-      <c r="F16" s="19">
-        <f>1*$E$11+($B$9-1)*$E$12+INDEX('Retroactieve investeringspremie'!C5:H19,MATCH($B$5,'Retroactieve investeringspremie'!B5:B19,0),2)*MIN($B$1,10)</f>
-        <v>16360.75</v>
-      </c>
-      <c r="G16" s="19">
-        <f>2*$E$11+($B$9-2)*$E$12+INDEX('Retroactieve investeringspremie'!C5:H19,MATCH($B$5,'Retroactieve investeringspremie'!B5:B19,0),3)*MIN($B$1,10)</f>
-        <v>16054</v>
-      </c>
-      <c r="H16" s="19">
-        <f>3*$E$11+($B$9-3)*$E$12+INDEX('Retroactieve investeringspremie'!C5:H19,MATCH($B$5,'Retroactieve investeringspremie'!B5:B19,0),4)*MIN($B$1,10)</f>
-        <v>16087.25</v>
-      </c>
-      <c r="I16" s="19">
-        <f>4*$E$11+($B$9-4)*$E$12+INDEX('Retroactieve investeringspremie'!C5:H19,MATCH($B$5,'Retroactieve investeringspremie'!B5:B19,0),5)*MIN($B$1,10)</f>
-        <v>16110.5</v>
-      </c>
-      <c r="J16" s="19">
-        <f>5*$E$11+($B$9-5)*$E$12+INDEX('Retroactieve investeringspremie'!C5:H19,MATCH($B$5,'Retroactieve investeringspremie'!B5:B19,0),6)*MIN($B$1,10)</f>
-        <v>16123.75</v>
+      <c r="E16" s="15">
+        <f>0*$E$11+($B$10-0)*$E$12+INDEX('Retroactieve investeringspremie'!C5:H19,MATCH($B$6,'Retroactieve investeringspremie'!B5:B19,0),1)*MIN($B$1,10)</f>
+        <v>6483</v>
+      </c>
+      <c r="F16" s="15">
+        <f>1*$E$11+($B$10-1)*$E$12+INDEX('Retroactieve investeringspremie'!C5:H19,MATCH($B$6,'Retroactieve investeringspremie'!B5:B19,0),2)*MIN($B$1,10)</f>
+        <v>6515.4</v>
+      </c>
+      <c r="G16" s="15">
+        <f>2*$E$11+($B$10-2)*$E$12+INDEX('Retroactieve investeringspremie'!C5:H19,MATCH($B$6,'Retroactieve investeringspremie'!B5:B19,0),3)*MIN($B$1,10)</f>
+        <v>6363.8</v>
+      </c>
+      <c r="H16" s="15">
+        <f>3*$E$11+($B$10-3)*$E$12+INDEX('Retroactieve investeringspremie'!C5:H19,MATCH($B$6,'Retroactieve investeringspremie'!B5:B19,0),4)*MIN($B$1,10)</f>
+        <v>6348.2</v>
+      </c>
+      <c r="I16" s="15">
+        <f>4*$E$11+($B$10-4)*$E$12+INDEX('Retroactieve investeringspremie'!C5:H19,MATCH($B$6,'Retroactieve investeringspremie'!B5:B19,0),5)*MIN($B$1,10)</f>
+        <v>6328.6</v>
+      </c>
+      <c r="J16" s="15">
+        <f>5*$E$11+($B$10-5)*$E$12+INDEX('Retroactieve investeringspremie'!C5:H19,MATCH($B$6,'Retroactieve investeringspremie'!B5:B19,0),6)*MIN($B$1,10)</f>
+        <v>6305</v>
       </c>
       <c r="L16" s="14"/>
     </row>
     <row r="17" spans="4:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="D17" s="20" t="str">
-        <f>"Totale geschatte opbrengst van 1 januari 2021 tot 1 januari "&amp;2021+B9&amp;" zonder installatie digitale teller"</f>
+      <c r="D17" s="16" t="str">
+        <f>"Totale geschatte opbrengst van 1 januari 2021 tot 1 januari "&amp;2021+B10&amp;" zonder installatie digitale teller"</f>
         <v>Totale geschatte opbrengst van 1 januari 2021 tot 1 januari 2031 zonder installatie digitale teller</v>
       </c>
-      <c r="E17" s="19">
-        <f>$E$11*$B$9</f>
-        <v>14470</v>
-      </c>
-      <c r="F17" s="19">
-        <f t="shared" ref="F17:J17" si="0">$E$11*$B$9</f>
-        <v>14470</v>
-      </c>
-      <c r="G17" s="19">
-        <f t="shared" si="0"/>
-        <v>14470</v>
-      </c>
-      <c r="H17" s="19">
-        <f t="shared" si="0"/>
-        <v>14470</v>
-      </c>
-      <c r="I17" s="19">
-        <f t="shared" si="0"/>
-        <v>14470</v>
-      </c>
-      <c r="J17" s="19">
-        <f t="shared" si="0"/>
-        <v>14470</v>
+      <c r="E17" s="15">
+        <f>$E$11*$B$10</f>
+        <v>5499</v>
+      </c>
+      <c r="F17" s="15">
+        <f>$E$11*$B$10</f>
+        <v>5499</v>
+      </c>
+      <c r="G17" s="15">
+        <f>$E$11*$B$10</f>
+        <v>5499</v>
+      </c>
+      <c r="H17" s="15">
+        <f>$E$11*$B$10</f>
+        <v>5499</v>
+      </c>
+      <c r="I17" s="15">
+        <f>$E$11*$B$10</f>
+        <v>5499</v>
+      </c>
+      <c r="J17" s="15">
+        <f>$E$11*$B$10</f>
+        <v>5499</v>
       </c>
     </row>
   </sheetData>
@@ -1914,20 +1925,20 @@
     <mergeCell ref="E14:J14"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ongeldige invoer" error="Simulatieduur moet minstens 5 jaar zijn." sqref="B9" xr:uid="{E5C70FA5-443F-4672-960D-9669D026BD29}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ongeldige invoer" error="Simulatieduur moet minstens 5 jaar zijn." sqref="B10" xr:uid="{E5C70FA5-443F-4672-960D-9669D026BD29}">
       <formula1>5</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ongeldige invoer" error="Deze berekening geldt enkel voor installatiejaren tussen 2006 en 2020." sqref="B5" xr:uid="{603D55A8-660D-4FFE-A6B6-4B0E4360670E}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ongeldige invoer" error="Deze berekening geldt enkel voor installatiejaren tussen 2006 en 2020." sqref="B6" xr:uid="{603D55A8-660D-4FFE-A6B6-4B0E4360670E}">
       <formula1>2006</formula1>
       <formula2>2020</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ongeldige invoer" error="Zelfverbruik moet tussen 0%  en 100% liggen." sqref="B8" xr:uid="{8374F796-3996-46C1-8D7D-0A1B8462007B}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ongeldige invoer" error="Zelfverbruik moet tussen 0%  en 100% liggen." sqref="B9" xr:uid="{8374F796-3996-46C1-8D7D-0A1B8462007B}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{6ABAB446-18B4-43FB-B306-C8DB92E2FEC1}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{6ABAB446-18B4-43FB-B306-C8DB92E2FEC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -1939,7 +1950,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1960,14 +1971,14 @@
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
@@ -1996,7 +2007,7 @@
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="7">
@@ -2024,7 +2035,7 @@
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="7">
         <v>2019</v>
       </c>
@@ -2050,7 +2061,7 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="7">
         <v>2018</v>
       </c>
@@ -2076,7 +2087,7 @@
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="7">
         <v>2017</v>
       </c>
@@ -2102,7 +2113,7 @@
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="7">
         <v>2016</v>
       </c>
@@ -2128,7 +2139,7 @@
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="18"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="7">
         <v>2015</v>
       </c>
@@ -2154,7 +2165,7 @@
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="7">
         <v>2014</v>
       </c>
@@ -2180,7 +2191,7 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="18"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="7">
         <v>2013</v>
       </c>
@@ -2206,7 +2217,7 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="7">
         <v>2012</v>
       </c>
@@ -2232,7 +2243,7 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="18"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="7">
         <v>2011</v>
       </c>
@@ -2258,7 +2269,7 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="18"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="7">
         <v>2010</v>
       </c>
@@ -2284,7 +2295,7 @@
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="18"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="7">
         <v>2009</v>
       </c>
@@ -2310,7 +2321,7 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="18"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="7">
         <v>2008</v>
       </c>
@@ -2336,7 +2347,7 @@
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="18"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="7">
         <v>2007</v>
       </c>
@@ -2362,7 +2373,7 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="18"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="7">
         <v>2006</v>
       </c>

--- a/digitale-teller.xlsx
+++ b/digitale-teller.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sander Vuurstaek\Dropbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sander Vuurstaek\src\digitale-teller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F556223-E530-48AF-A4E9-2B608A560D7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA2D284-BAA1-418E-9AD6-7EE8C57ED031}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11760" xr2:uid="{057D9BC0-98AB-4B09-B078-34CB66DB4C3B}"/>
   </bookViews>
@@ -1712,7 +1712,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1824,7 +1824,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="4">
-        <f>(B7*B2*B9/100)+(B8*B2*(1-B9/100))-MAX(B2-B3,0)*B8</f>
+        <f>(B7*B2*B9/100)+(B8*B2*(1-B9/100))</f>
         <v>517.5</v>
       </c>
     </row>
@@ -1896,27 +1896,27 @@
         <v>Totale geschatte opbrengst van 1 januari 2021 tot 1 januari 2031 zonder installatie digitale teller</v>
       </c>
       <c r="E17" s="15">
-        <f>$E$11*$B$10</f>
+        <f t="shared" ref="E17:J17" si="0">$E$11*$B$10</f>
         <v>5499</v>
       </c>
       <c r="F17" s="15">
-        <f>$E$11*$B$10</f>
+        <f t="shared" si="0"/>
         <v>5499</v>
       </c>
       <c r="G17" s="15">
-        <f>$E$11*$B$10</f>
+        <f t="shared" si="0"/>
         <v>5499</v>
       </c>
       <c r="H17" s="15">
-        <f>$E$11*$B$10</f>
+        <f t="shared" si="0"/>
         <v>5499</v>
       </c>
       <c r="I17" s="15">
-        <f>$E$11*$B$10</f>
+        <f t="shared" si="0"/>
         <v>5499</v>
       </c>
       <c r="J17" s="15">
-        <f>$E$11*$B$10</f>
+        <f t="shared" si="0"/>
         <v>5499</v>
       </c>
     </row>
